--- a/Game/Troops/all_troops.xlsx
+++ b/Game/Troops/all_troops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balal\OneDrive\Documentos\Msc\Reinforcement Learning\TW-Agent\Game\Troops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD45049-C8A3-45E4-A0F5-A4F04ED13B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90019BB2-EA85-4CBC-A77F-EDE7C0EEB85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F3BF0D4-6471-44E5-9D89-76BE93544664}"/>
   </bookViews>
@@ -269,9 +269,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,20 +346,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{762FD324-AD3F-45AA-9DF0-50185816DEFC}" name="Table_0" displayName="Table_0" ref="A1:K14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{762FD324-AD3F-45AA-9DF0-50185816DEFC}" name="Table_0" displayName="Table_0" ref="A1:K14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:K14" xr:uid="{762FD324-AD3F-45AA-9DF0-50185816DEFC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{3CB6DFD0-1349-464E-B615-AC35F64592C5}" uniqueName="1" name="unit" queryTableFieldId="1" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{0C646B97-FE53-4888-B31A-EAE7C9CE41E6}" uniqueName="2" name="wood" queryTableFieldId="2" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{3B5808C6-5037-4E4F-BAB6-0415255D015B}" uniqueName="3" name="clay" queryTableFieldId="3" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{27F26272-294D-4F39-8D23-C56961B72761}" uniqueName="4" name="iron" queryTableFieldId="4" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{FAA1249A-1F40-423A-B8A4-0E1F5334F3F9}" uniqueName="5" name="population" queryTableFieldId="5" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{841416ED-D3FD-4197-A798-BE39916081C4}" uniqueName="6" name="offensive" queryTableFieldId="6" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{12CB866F-8296-48D4-9042-092FCFEAA199}" uniqueName="7" name="general_defense" queryTableFieldId="7" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{723D5BD1-8BA4-4FCC-96F2-355EDDE7AF0A}" uniqueName="8" name="cavalry_defense" queryTableFieldId="8" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{DC7AAF0B-37E4-4202-9A5E-515F33D97FDA}" uniqueName="9" name="archer_defense" queryTableFieldId="9" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{E7CFE322-11EC-46E0-B457-D945449BACDF}" uniqueName="10" name="speed" queryTableFieldId="10" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{98C3178C-DCC6-4AFA-B282-9D5EDB4D1B86}" uniqueName="11" name="booty" queryTableFieldId="11" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{3CB6DFD0-1349-464E-B615-AC35F64592C5}" uniqueName="1" name="unit" queryTableFieldId="1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{0C646B97-FE53-4888-B31A-EAE7C9CE41E6}" uniqueName="2" name="wood" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{3B5808C6-5037-4E4F-BAB6-0415255D015B}" uniqueName="3" name="clay" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{27F26272-294D-4F39-8D23-C56961B72761}" uniqueName="4" name="iron" queryTableFieldId="4" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{FAA1249A-1F40-423A-B8A4-0E1F5334F3F9}" uniqueName="5" name="population" queryTableFieldId="5" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{841416ED-D3FD-4197-A798-BE39916081C4}" uniqueName="6" name="offensive" queryTableFieldId="6" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{12CB866F-8296-48D4-9042-092FCFEAA199}" uniqueName="7" name="general_defense" queryTableFieldId="7" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{723D5BD1-8BA4-4FCC-96F2-355EDDE7AF0A}" uniqueName="8" name="cavalry_defense" queryTableFieldId="8" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{DC7AAF0B-37E4-4202-9A5E-515F33D97FDA}" uniqueName="9" name="archer_defense" queryTableFieldId="9" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{E7CFE322-11EC-46E0-B457-D945449BACDF}" uniqueName="10" name="speed" queryTableFieldId="10" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{98C3178C-DCC6-4AFA-B282-9D5EDB4D1B86}" uniqueName="11" name="booty" queryTableFieldId="11" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -663,516 +662,508 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D5B05B-8F38-4EFC-8893-F9A2C4CC6B77}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
